--- a/tests/resources/brokering/metadata_wrong_scientific_name.xlsx
+++ b/tests/resources/brokering/metadata_wrong_scientific_name.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="769">
   <si>
     <t xml:space="preserve">PLEASE READ FIRST</t>
   </si>
@@ -953,550 +953,553 @@
     <t xml:space="preserve">Sample 1</t>
   </si>
   <si>
+    <t xml:space="preserve">Homo Sapiens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homo sapiens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample 91</t>
+  </si>
+  <si>
     <t xml:space="preserve">HS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homo sapiens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample 91</t>
   </si>
   <si>
     <t xml:space="preserve">S92</t>
@@ -3265,7 +3268,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="M4:M13 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83984375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3507,10 +3510,10 @@
   <dimension ref="A1:D1003"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="M4:M13 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.67578125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.33"/>
@@ -3522,13 +3525,13 @@
         <v>75</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3536,13 +3539,13 @@
         <v>152</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3550,13 +3553,13 @@
         <v>152</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6596,10 +6599,10 @@
   <dimension ref="A1:K281"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="M4:M13 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.67578125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39"/>
@@ -6610,7 +6613,7 @@
   <sheetData>
     <row r="1" s="81" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="80" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D1" s="80" t="s">
         <v>15</v>
@@ -6637,16 +6640,16 @@
         <v>101</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K2" s="35"/>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="35" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>154</v>
@@ -6656,35 +6659,35 @@
       </c>
       <c r="F3" s="82"/>
       <c r="G3" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>103</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>104</v>
@@ -6692,13 +6695,13 @@
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>105</v>
@@ -6706,13 +6709,13 @@
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>106</v>
@@ -6720,13 +6723,13 @@
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>107</v>
@@ -6734,13 +6737,13 @@
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>108</v>
@@ -6748,10 +6751,10 @@
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>109</v>
@@ -6759,10 +6762,10 @@
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>109</v>
@@ -6770,10 +6773,10 @@
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>110</v>
@@ -6781,7 +6784,7 @@
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>111</v>
@@ -6789,7 +6792,7 @@
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>112</v>
@@ -6797,7 +6800,7 @@
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>113</v>
@@ -6805,7 +6808,7 @@
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>114</v>
@@ -6813,7 +6816,7 @@
     </row>
     <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>115</v>
@@ -6821,7 +6824,7 @@
     </row>
     <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>116</v>
@@ -6829,7 +6832,7 @@
     </row>
     <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>117</v>
@@ -6837,7 +6840,7 @@
     </row>
     <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>118</v>
@@ -6845,7 +6848,7 @@
     </row>
     <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>119</v>
@@ -6853,7 +6856,7 @@
     </row>
     <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>120</v>
@@ -6861,7 +6864,7 @@
     </row>
     <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>121</v>
@@ -6869,7 +6872,7 @@
     </row>
     <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>122</v>
@@ -6877,7 +6880,7 @@
     </row>
     <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>123</v>
@@ -6885,7 +6888,7 @@
     </row>
     <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>124</v>
@@ -6893,7 +6896,7 @@
     </row>
     <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>125</v>
@@ -6901,7 +6904,7 @@
     </row>
     <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>126</v>
@@ -6909,7 +6912,7 @@
     </row>
     <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>127</v>
@@ -6917,7 +6920,7 @@
     </row>
     <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>128</v>
@@ -6925,7 +6928,7 @@
     </row>
     <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>129</v>
@@ -6933,7 +6936,7 @@
     </row>
     <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>130</v>
@@ -6941,7 +6944,7 @@
     </row>
     <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>131</v>
@@ -6949,7 +6952,7 @@
     </row>
     <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E34" s="35" t="s">
         <v>132</v>
@@ -6957,7 +6960,7 @@
     </row>
     <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>133</v>
@@ -6965,7 +6968,7 @@
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>134</v>
@@ -6973,7 +6976,7 @@
     </row>
     <row r="37" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>135</v>
@@ -6981,7 +6984,7 @@
     </row>
     <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>136</v>
@@ -6989,7 +6992,7 @@
     </row>
     <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>137</v>
@@ -6997,7 +7000,7 @@
     </row>
     <row r="40" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>138</v>
@@ -7005,7 +7008,7 @@
     </row>
     <row r="41" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>139</v>
@@ -7013,7 +7016,7 @@
     </row>
     <row r="42" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E42" s="35" t="s">
         <v>140</v>
@@ -7021,7 +7024,7 @@
     </row>
     <row r="43" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E43" s="0" t="s">
         <v>141</v>
@@ -7029,7 +7032,7 @@
     </row>
     <row r="44" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E44" s="0" t="s">
         <v>142</v>
@@ -7037,7 +7040,7 @@
     </row>
     <row r="45" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E45" s="0" t="s">
         <v>143</v>
@@ -7045,7 +7048,7 @@
     </row>
     <row r="46" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E46" s="0" t="s">
         <v>144</v>
@@ -7053,7 +7056,7 @@
     </row>
     <row r="47" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E47" s="0" t="s">
         <v>145</v>
@@ -7061,7 +7064,7 @@
     </row>
     <row r="48" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E48" s="0" t="s">
         <v>146</v>
@@ -7069,7 +7072,7 @@
     </row>
     <row r="49" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="0" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E49" s="0" t="s">
         <v>147</v>
@@ -7077,7 +7080,7 @@
     </row>
     <row r="50" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="0" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E50" s="0" t="s">
         <v>148</v>
@@ -7085,7 +7088,7 @@
     </row>
     <row r="51" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="0" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E51" s="0" t="s">
         <v>149</v>
@@ -7093,7 +7096,7 @@
     </row>
     <row r="52" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E52" s="0" t="s">
         <v>150</v>
@@ -7101,1148 +7104,1148 @@
     </row>
     <row r="53" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="0" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E54" s="81"/>
     </row>
     <row r="55" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="0" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="0" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="0" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="0" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="0" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="0" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="0" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="0" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="0" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="0" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="0" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="0" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="0" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="0" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="0" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="0" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="0" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="0" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="0" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="0" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="0" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="0" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="0" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="0" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="0" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="0" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="0" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="0" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="0" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="0" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="0" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="0" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="0" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="0" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="0" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="0" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="0" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="0" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="0" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="0" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="0" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="0" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="0" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="0" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="0" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="0" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="0" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="0" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="0" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="0" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="0" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="0" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="0" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="0" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="0" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="0" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="0" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="0" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="0" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="0" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="0" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="0" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="0" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="0" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="0" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="0" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="0" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="0" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="0" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="0" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="0" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="0" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="0" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="0" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="0" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="0" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="0" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="0" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="0" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="0" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="0" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B150" s="0" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B151" s="0" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B152" s="0" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="0" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B154" s="0" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B155" s="0" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B156" s="0" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B157" s="0" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B158" s="0" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B159" s="0" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B160" s="0" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B161" s="0" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B162" s="0" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B163" s="0" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B164" s="0" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B165" s="0" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B166" s="0" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B167" s="0" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B168" s="0" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B169" s="0" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B170" s="0" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B171" s="0" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B172" s="0" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B173" s="0" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B174" s="0" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B175" s="0" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B176" s="0" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B177" s="0" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B178" s="0" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B179" s="0" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B180" s="0" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B181" s="0" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B182" s="0" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B183" s="0" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B184" s="0" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B185" s="0" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B186" s="0" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B187" s="0" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B188" s="0" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B189" s="0" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B190" s="0" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B191" s="0" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B192" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B193" s="0" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B194" s="0" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B195" s="0" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B196" s="0" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B197" s="0" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B198" s="0" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B199" s="0" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B200" s="0" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B201" s="0" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B202" s="0" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B203" s="0" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B204" s="0" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B205" s="0" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B206" s="0" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B207" s="0" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B208" s="0" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B209" s="0" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B210" s="0" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B211" s="0" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B212" s="0" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B213" s="0" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B214" s="0" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B215" s="0" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B216" s="0" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B217" s="0" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B218" s="0" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B219" s="0" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B220" s="0" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B221" s="0" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B222" s="0" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B223" s="0" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B224" s="0" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B225" s="0" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B226" s="0" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B227" s="0" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B228" s="0" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B229" s="0" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B230" s="0" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B231" s="0" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B232" s="0" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B233" s="0" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B234" s="0" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B235" s="0" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B236" s="0" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B237" s="0" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B238" s="0" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B239" s="0" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B240" s="0" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B241" s="0" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B242" s="0" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B243" s="0" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B244" s="0" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B245" s="0" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B246" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B247" s="0" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B248" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B249" s="0" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B250" s="0" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B251" s="0" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B252" s="0" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B253" s="0" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B254" s="0" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B255" s="0" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B256" s="0" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B257" s="0" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B258" s="0" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B259" s="0" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B260" s="0" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B261" s="0" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B262" s="0" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B263" s="0" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B264" s="0" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B265" s="0" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B266" s="0" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B267" s="0" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B268" s="0" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B269" s="0" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B270" s="0" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B271" s="0" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B272" s="0" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B273" s="0" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B274" s="0" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B275" s="0" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B276" s="0" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B277" s="0" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B278" s="0" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B279" s="0" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B280" s="0" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B281" s="0" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
   </sheetData>
@@ -8265,10 +8268,10 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="M4:M13 F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.67578125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.17"/>
@@ -8371,10 +8374,10 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="M4:M13 B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.67578125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="176.66"/>
@@ -8528,10 +8531,10 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="M4:M13 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.67578125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.5"/>
@@ -8638,10 +8641,10 @@
   <dimension ref="A1:B71"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A58" activeCellId="0" sqref="A58"/>
+      <selection pane="topLeft" activeCell="A58" activeCellId="1" sqref="M4:M13 A58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.67578125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="164.66"/>
@@ -9055,10 +9058,10 @@
   <dimension ref="A1:O1002"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="topLeft" activeCell="F5" activeCellId="1" sqref="M4:M13 F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.67578125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.16"/>
@@ -13179,10 +13182,10 @@
   <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="1" sqref="M4:M13 A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.67578125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="35" width="212"/>
@@ -14044,10 +14047,10 @@
   <dimension ref="A1:AT103"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M13" activeCellId="0" sqref="M13"/>
+      <selection pane="topLeft" activeCell="M4" activeCellId="0" sqref="M4:M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.67578125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="16"/>
@@ -16163,7 +16166,7 @@
         <v>9606</v>
       </c>
       <c r="M94" s="0" t="s">
-        <v>259</v>
+        <v>441</v>
       </c>
       <c r="AA94" s="38" t="n">
         <v>43845</v>
@@ -16174,16 +16177,16 @@
         <v>152</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L95" s="0" t="n">
         <v>9606</v>
       </c>
       <c r="M95" s="0" t="s">
-        <v>259</v>
+        <v>441</v>
       </c>
       <c r="AA95" s="38" t="n">
         <v>43845</v>
@@ -16194,16 +16197,16 @@
         <v>152</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L96" s="0" t="n">
         <v>9606</v>
       </c>
       <c r="M96" s="0" t="s">
-        <v>259</v>
+        <v>441</v>
       </c>
       <c r="AA96" s="38" t="n">
         <v>43845</v>
@@ -16214,16 +16217,16 @@
         <v>152</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L97" s="0" t="n">
         <v>9606</v>
       </c>
       <c r="M97" s="0" t="s">
-        <v>259</v>
+        <v>441</v>
       </c>
       <c r="AA97" s="38" t="n">
         <v>43845</v>
@@ -16234,16 +16237,16 @@
         <v>152</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L98" s="0" t="n">
         <v>9606</v>
       </c>
       <c r="M98" s="0" t="s">
-        <v>259</v>
+        <v>441</v>
       </c>
       <c r="AA98" s="38" t="n">
         <v>43845</v>
@@ -16254,16 +16257,16 @@
         <v>152</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L99" s="0" t="n">
         <v>9606</v>
       </c>
       <c r="M99" s="0" t="s">
-        <v>259</v>
+        <v>441</v>
       </c>
       <c r="AA99" s="38" t="n">
         <v>43845</v>
@@ -16274,16 +16277,16 @@
         <v>152</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L100" s="0" t="n">
         <v>9606</v>
       </c>
       <c r="M100" s="0" t="s">
-        <v>259</v>
+        <v>441</v>
       </c>
       <c r="AA100" s="38" t="n">
         <v>43845</v>
@@ -16294,16 +16297,16 @@
         <v>152</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L101" s="0" t="n">
         <v>9606</v>
       </c>
       <c r="M101" s="0" t="s">
-        <v>259</v>
+        <v>441</v>
       </c>
       <c r="AA101" s="38" t="n">
         <v>43845</v>
@@ -16314,16 +16317,16 @@
         <v>152</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L102" s="0" t="n">
         <v>9606</v>
       </c>
       <c r="M102" s="0" t="s">
-        <v>259</v>
+        <v>441</v>
       </c>
       <c r="AA102" s="38" t="n">
         <v>43845</v>
@@ -16334,16 +16337,16 @@
         <v>152</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L103" s="0" t="n">
         <v>9606</v>
       </c>
       <c r="M103" s="0" t="s">
-        <v>259</v>
+        <v>441</v>
       </c>
       <c r="AA103" s="38" t="n">
         <v>43845</v>
@@ -16405,10 +16408,10 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="M4:M13 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.67578125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="114.67"/>
@@ -16427,31 +16430,31 @@
         <v>75</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="34" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="34" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="34" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
